--- a/VerveStacks_CHE/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19836F3-A736-4659-A110-9C9CC7445E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F9C22E-1932-43AF-82B3-54006FFFE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,13 +579,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2aH4,S3aH4,S3aH3,S1aH3,S1aH2,S2aH3,S1aH4,S2aH2,S3aH2</t>
+    <t>S1aH4,S2aH2,S1aH3,S3aH3,S2aH4,S3aH2,S1aH2,S2aH3,S3aH4</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S3aH1,S3aH5,S1aH1,S2aH1,S1aH5,S2aH5</t>
+    <t>S1aH1,S2aH1,S3aH1,S3aH5,S1aH5,S2aH5</t>
   </si>
   <si>
     <t>com_pkflx</t>
@@ -663,10 +663,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>FaD,SaD,RaP,RaD,WaD,WaP,FaP,SaP</t>
+    <t>FaD,FaP,SaP,WaP,RaP,RaD,SaD,WaD</t>
   </si>
   <si>
-    <t>RaP,FaP,SaP,FaN,SaN,WaN,RaN,WaP</t>
+    <t>RaP,RaN,SaN,WaN,FaN,FaP,SaP,WaP</t>
   </si>
 </sst>
 </file>
@@ -23435,7 +23435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB4DDF2-A60A-4E2A-B6D2-8C940514BB89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D77EF62-46C1-43CC-8B76-2EB33F7D8469}">
   <dimension ref="A9:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23661,7 +23661,7 @@
         <v>145</v>
       </c>
       <c r="AL11">
-        <v>0.17653172515557836</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="AM11" t="s">
         <v>184</v>
@@ -23747,7 +23747,7 @@
         <v>149</v>
       </c>
       <c r="AL12">
-        <v>0.6684031564765508</v>
+        <v>0.66840315647655102</v>
       </c>
       <c r="AM12" t="s">
         <v>184</v>
@@ -23833,7 +23833,7 @@
         <v>151</v>
       </c>
       <c r="AL13">
-        <v>0.35506511836787058</v>
+        <v>0.35506511836787064</v>
       </c>
       <c r="AM13" t="s">
         <v>184</v>
@@ -24838,7 +24838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25889074-09CF-44BA-89EC-BC9255AFE617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CBDD0-4F37-4D1E-86D2-78191836C9D4}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25064,7 +25064,7 @@
         <v>185</v>
       </c>
       <c r="AL11">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="AM11" t="s">
         <v>184</v>
@@ -25087,7 +25087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311ABAEA-580C-41F0-BEE1-3E65CE514B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E2D00B-3EB3-41D0-A806-CCE0C1CAED0D}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25310,10 +25310,10 @@
         <v>0.17617534240471389</v>
       </c>
       <c r="AK11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL11">
-        <v>0.39690767947648675</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="AM11" t="s">
         <v>184</v>
@@ -25399,7 +25399,7 @@
         <v>188</v>
       </c>
       <c r="AL12">
-        <v>0.27553730672996718</v>
+        <v>0.27553730672996724</v>
       </c>
       <c r="AM12" t="s">
         <v>184</v>
@@ -25482,10 +25482,10 @@
         <v>0.17286248685938022</v>
       </c>
       <c r="AK13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL13">
-        <v>0.27149547700006416</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="AM13" t="s">
         <v>184</v>
@@ -25562,10 +25562,10 @@
         <v>0.14227252545542379</v>
       </c>
       <c r="AK14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL14">
-        <v>0.2560595367934817</v>
+        <v>0.27149547700006416</v>
       </c>
       <c r="AM14" t="s">
         <v>184</v>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F9C22E-1932-43AF-82B3-54006FFFE1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C378E068-D504-4CF6-9DA6-F0995485235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,13 +579,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S1aH3,S3aH3,S2aH4,S3aH2,S1aH2,S2aH3,S3aH4</t>
+    <t>S3aH4,S1aH4,S2aH2,S1aH2,S2aH3,S2aH4,S3aH3,S3aH2,S1aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH1,S2aH1,S3aH1,S3aH5,S1aH5,S2aH5</t>
+    <t>S3aH1,S3aH5,S1aH5,S2aH5,S2aH1,S1aH1</t>
   </si>
   <si>
     <t>com_pkflx</t>
@@ -663,10 +663,10 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>FaD,FaP,SaP,WaP,RaP,RaD,SaD,WaD</t>
+    <t>RaD,FaP,SaP,SaD,RaP,WaP,FaD,WaD</t>
   </si>
   <si>
-    <t>RaP,RaN,SaN,WaN,FaN,FaP,SaP,WaP</t>
+    <t>FaP,SaP,WaP,FaN,RaN,RaP,SaN,WaN</t>
   </si>
 </sst>
 </file>
@@ -23435,7 +23435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D77EF62-46C1-43CC-8B76-2EB33F7D8469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADBB896-6688-495F-9429-E929BA66E496}">
   <dimension ref="A9:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23661,7 +23661,7 @@
         <v>145</v>
       </c>
       <c r="AL11">
-        <v>0.17653172515557838</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="AM11" t="s">
         <v>184</v>
@@ -23833,7 +23833,7 @@
         <v>151</v>
       </c>
       <c r="AL13">
-        <v>0.35506511836787064</v>
+        <v>0.35506511836787058</v>
       </c>
       <c r="AM13" t="s">
         <v>184</v>
@@ -24838,7 +24838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CBDD0-4F37-4D1E-86D2-78191836C9D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85366D-D11A-4ACF-9336-C6122AB8C75C}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25087,7 +25087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E2D00B-3EB3-41D0-A806-CCE0C1CAED0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3E4037-4859-44C8-BD76-21E3C0E978E0}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25310,10 +25310,10 @@
         <v>0.17617534240471389</v>
       </c>
       <c r="AK11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL11">
-        <v>0.2560595367934817</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="AM11" t="s">
         <v>184</v>
@@ -25396,10 +25396,10 @@
         <v>0.33306575146351802</v>
       </c>
       <c r="AK12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AL12">
-        <v>0.27553730672996724</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="AM12" t="s">
         <v>184</v>
@@ -25482,10 +25482,10 @@
         <v>0.17286248685938022</v>
       </c>
       <c r="AK13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL13">
-        <v>0.39690767947648675</v>
+        <v>0.27553730672996724</v>
       </c>
       <c r="AM13" t="s">
         <v>184</v>
